--- a/ocms/src/test/resources/DownloadedFiles/Menu Description Mapping.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Menu Description Mapping.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="685">
   <si>
     <t xml:space="preserve">Menu Id</t>
   </si>
@@ -58,10 +58,10 @@
     <t xml:space="preserve">Fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/08/2021 15:59:17</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 20:53:54</t>
   </si>
   <si>
     <t xml:space="preserve">00000012</t>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
   </si>
   <si>
     <t xml:space="preserve">26/03/2021 12:33:58</t>
@@ -2831,86 +2828,86 @@
         <v>96</v>
       </c>
       <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
         <v>114</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2919,32 +2916,32 @@
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2958,10 +2955,10 @@
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" t="s">
-        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -2975,10 +2972,10 @@
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2992,10 +2989,10 @@
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -3009,10 +3006,10 @@
     </row>
     <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
         <v>128</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -3026,10 +3023,10 @@
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -3043,10 +3040,10 @@
     </row>
     <row r="53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
         <v>132</v>
-      </c>
-      <c r="B53" t="s">
-        <v>133</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -3060,10 +3057,10 @@
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
         <v>134</v>
-      </c>
-      <c r="B54" t="s">
-        <v>135</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -3077,10 +3074,10 @@
     </row>
     <row r="55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
         <v>136</v>
-      </c>
-      <c r="B55" t="s">
-        <v>137</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -3094,27 +3091,27 @@
     </row>
     <row r="56" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
         <v>138</v>
-      </c>
-      <c r="B56" t="s">
-        <v>139</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
         <v>142</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -3128,10 +3125,10 @@
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
         <v>144</v>
-      </c>
-      <c r="B58" t="s">
-        <v>145</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -3145,10 +3142,10 @@
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
         <v>146</v>
-      </c>
-      <c r="B59" t="s">
-        <v>147</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -3162,10 +3159,10 @@
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
         <v>148</v>
-      </c>
-      <c r="B60" t="s">
-        <v>149</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -3179,10 +3176,10 @@
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
         <v>150</v>
-      </c>
-      <c r="B61" t="s">
-        <v>151</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -3196,10 +3193,10 @@
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s">
         <v>152</v>
-      </c>
-      <c r="B62" t="s">
-        <v>153</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -3213,10 +3210,10 @@
     </row>
     <row r="63" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" t="s">
         <v>154</v>
-      </c>
-      <c r="B63" t="s">
-        <v>155</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -3230,10 +3227,10 @@
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
         <v>156</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -3247,10 +3244,10 @@
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
         <v>158</v>
-      </c>
-      <c r="B65" t="s">
-        <v>159</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -3264,10 +3261,10 @@
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
         <v>160</v>
-      </c>
-      <c r="B66" t="s">
-        <v>161</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -3281,10 +3278,10 @@
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
         <v>162</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -3298,10 +3295,10 @@
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
         <v>164</v>
-      </c>
-      <c r="B68" t="s">
-        <v>165</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -3315,10 +3312,10 @@
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" t="s">
         <v>166</v>
-      </c>
-      <c r="B69" t="s">
-        <v>167</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -3332,13 +3329,13 @@
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
         <v>168</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>169</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -3349,10 +3346,10 @@
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -3366,10 +3363,10 @@
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
         <v>173</v>
-      </c>
-      <c r="B72" t="s">
-        <v>174</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -3383,10 +3380,10 @@
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
         <v>175</v>
-      </c>
-      <c r="B73" t="s">
-        <v>176</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -3400,10 +3397,10 @@
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
         <v>177</v>
-      </c>
-      <c r="B74" t="s">
-        <v>178</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -3417,10 +3414,10 @@
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
         <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>180</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -3434,10 +3431,10 @@
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
         <v>181</v>
-      </c>
-      <c r="B76" t="s">
-        <v>182</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -3451,10 +3448,10 @@
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" t="s">
         <v>183</v>
-      </c>
-      <c r="B77" t="s">
-        <v>184</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -3468,10 +3465,10 @@
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s">
         <v>185</v>
-      </c>
-      <c r="B78" t="s">
-        <v>186</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -3485,10 +3482,10 @@
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
         <v>187</v>
-      </c>
-      <c r="B79" t="s">
-        <v>188</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -3502,10 +3499,10 @@
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" t="s">
         <v>189</v>
-      </c>
-      <c r="B80" t="s">
-        <v>190</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -3519,10 +3516,10 @@
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" t="s">
         <v>191</v>
-      </c>
-      <c r="B81" t="s">
-        <v>192</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
@@ -3536,10 +3533,10 @@
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
         <v>193</v>
-      </c>
-      <c r="B82" t="s">
-        <v>194</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -3553,10 +3550,10 @@
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" t="s">
         <v>195</v>
-      </c>
-      <c r="B83" t="s">
-        <v>196</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -3570,10 +3567,10 @@
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
         <v>197</v>
-      </c>
-      <c r="B84" t="s">
-        <v>198</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -3587,13 +3584,13 @@
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" t="s">
         <v>199</v>
       </c>
-      <c r="B85" t="s">
-        <v>200</v>
-      </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -3604,10 +3601,10 @@
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
         <v>201</v>
-      </c>
-      <c r="B86" t="s">
-        <v>202</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -3621,10 +3618,10 @@
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
         <v>203</v>
-      </c>
-      <c r="B87" t="s">
-        <v>204</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -3638,13 +3635,13 @@
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
         <v>205</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>206</v>
-      </c>
-      <c r="C88" t="s">
-        <v>207</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -3655,10 +3652,10 @@
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
         <v>208</v>
-      </c>
-      <c r="B89" t="s">
-        <v>209</v>
       </c>
       <c r="C89" t="s">
         <v>56</v>
@@ -3672,13 +3669,13 @@
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
         <v>210</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>211</v>
-      </c>
-      <c r="C90" t="s">
-        <v>212</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -3689,13 +3686,13 @@
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" t="s">
         <v>213</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" t="s">
-        <v>215</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -3706,13 +3703,13 @@
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" t="s">
         <v>216</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>217</v>
-      </c>
-      <c r="C92" t="s">
-        <v>218</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -3723,13 +3720,13 @@
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" t="s">
         <v>219</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>220</v>
-      </c>
-      <c r="C93" t="s">
-        <v>221</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -3740,10 +3737,10 @@
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s">
         <v>222</v>
-      </c>
-      <c r="B94" t="s">
-        <v>223</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -3757,10 +3754,10 @@
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" t="s">
         <v>224</v>
-      </c>
-      <c r="B95" t="s">
-        <v>225</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -3774,10 +3771,10 @@
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
         <v>226</v>
-      </c>
-      <c r="B96" t="s">
-        <v>227</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -3791,10 +3788,10 @@
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s">
         <v>228</v>
-      </c>
-      <c r="B97" t="s">
-        <v>229</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -3808,10 +3805,10 @@
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" t="s">
         <v>230</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -3825,10 +3822,10 @@
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s">
         <v>232</v>
-      </c>
-      <c r="B99" t="s">
-        <v>233</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -3842,10 +3839,10 @@
     </row>
     <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
         <v>234</v>
-      </c>
-      <c r="B100" t="s">
-        <v>235</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -3859,10 +3856,10 @@
     </row>
     <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" t="s">
         <v>236</v>
-      </c>
-      <c r="B101" t="s">
-        <v>237</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -3876,10 +3873,10 @@
     </row>
     <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" t="s">
         <v>238</v>
-      </c>
-      <c r="B102" t="s">
-        <v>239</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -3893,10 +3890,10 @@
     </row>
     <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103" t="s">
         <v>240</v>
-      </c>
-      <c r="B103" t="s">
-        <v>241</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -3910,10 +3907,10 @@
     </row>
     <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s">
         <v>242</v>
-      </c>
-      <c r="B104" t="s">
-        <v>243</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
@@ -3927,10 +3924,10 @@
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" t="s">
         <v>244</v>
-      </c>
-      <c r="B105" t="s">
-        <v>245</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -3944,13 +3941,13 @@
     </row>
     <row r="106" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s">
         <v>246</v>
       </c>
-      <c r="B106" t="s">
-        <v>247</v>
-      </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -3961,10 +3958,10 @@
     </row>
     <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" t="s">
         <v>248</v>
-      </c>
-      <c r="B107" t="s">
-        <v>249</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -3978,10 +3975,10 @@
     </row>
     <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" t="s">
         <v>250</v>
-      </c>
-      <c r="B108" t="s">
-        <v>251</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -3995,10 +3992,10 @@
     </row>
     <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" t="s">
         <v>252</v>
-      </c>
-      <c r="B109" t="s">
-        <v>253</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -4012,10 +4009,10 @@
     </row>
     <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" t="s">
         <v>254</v>
-      </c>
-      <c r="B110" t="s">
-        <v>255</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
@@ -4029,10 +4026,10 @@
     </row>
     <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" t="s">
         <v>256</v>
-      </c>
-      <c r="B111" t="s">
-        <v>257</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -4046,13 +4043,13 @@
     </row>
     <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
         <v>258</v>
       </c>
-      <c r="B112" t="s">
-        <v>259</v>
-      </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -4063,10 +4060,10 @@
     </row>
     <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>259</v>
+      </c>
+      <c r="B113" t="s">
         <v>260</v>
-      </c>
-      <c r="B113" t="s">
-        <v>261</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -4080,10 +4077,10 @@
     </row>
     <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" t="s">
         <v>262</v>
-      </c>
-      <c r="B114" t="s">
-        <v>263</v>
       </c>
       <c r="C114" t="s">
         <v>17</v>
@@ -4097,10 +4094,10 @@
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" t="s">
         <v>264</v>
-      </c>
-      <c r="B115" t="s">
-        <v>265</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -4114,10 +4111,10 @@
     </row>
     <row r="116" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" t="s">
         <v>266</v>
-      </c>
-      <c r="B116" t="s">
-        <v>267</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
@@ -4131,10 +4128,10 @@
     </row>
     <row r="117" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>267</v>
+      </c>
+      <c r="B117" t="s">
         <v>268</v>
-      </c>
-      <c r="B117" t="s">
-        <v>269</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
@@ -4148,10 +4145,10 @@
     </row>
     <row r="118" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118" t="s">
         <v>270</v>
-      </c>
-      <c r="B118" t="s">
-        <v>271</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
@@ -4165,10 +4162,10 @@
     </row>
     <row r="119" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" t="s">
         <v>272</v>
-      </c>
-      <c r="B119" t="s">
-        <v>273</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -4182,10 +4179,10 @@
     </row>
     <row r="120" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>273</v>
+      </c>
+      <c r="B120" t="s">
         <v>274</v>
-      </c>
-      <c r="B120" t="s">
-        <v>275</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -4199,10 +4196,10 @@
     </row>
     <row r="121" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" t="s">
         <v>276</v>
-      </c>
-      <c r="B121" t="s">
-        <v>277</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="122" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" t="s">
         <v>278</v>
-      </c>
-      <c r="B122" t="s">
-        <v>279</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -4233,10 +4230,10 @@
     </row>
     <row r="123" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" t="s">
         <v>280</v>
-      </c>
-      <c r="B123" t="s">
-        <v>281</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -4250,10 +4247,10 @@
     </row>
     <row r="124" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>281</v>
+      </c>
+      <c r="B124" t="s">
         <v>282</v>
-      </c>
-      <c r="B124" t="s">
-        <v>283</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -4267,10 +4264,10 @@
     </row>
     <row r="125" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>283</v>
+      </c>
+      <c r="B125" t="s">
         <v>284</v>
-      </c>
-      <c r="B125" t="s">
-        <v>285</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -4284,13 +4281,13 @@
     </row>
     <row r="126" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" t="s">
         <v>286</v>
       </c>
-      <c r="B126" t="s">
-        <v>287</v>
-      </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -4301,10 +4298,10 @@
     </row>
     <row r="127" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" t="s">
         <v>288</v>
-      </c>
-      <c r="B127" t="s">
-        <v>289</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
@@ -4318,10 +4315,10 @@
     </row>
     <row r="128" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" t="s">
         <v>290</v>
-      </c>
-      <c r="B128" t="s">
-        <v>291</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
@@ -4335,10 +4332,10 @@
     </row>
     <row r="129" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" t="s">
         <v>292</v>
-      </c>
-      <c r="B129" t="s">
-        <v>293</v>
       </c>
       <c r="C129" t="s">
         <v>17</v>
@@ -4352,10 +4349,10 @@
     </row>
     <row r="130" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" t="s">
         <v>294</v>
-      </c>
-      <c r="B130" t="s">
-        <v>295</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
@@ -4369,10 +4366,10 @@
     </row>
     <row r="131" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" t="s">
         <v>296</v>
-      </c>
-      <c r="B131" t="s">
-        <v>297</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
@@ -4386,10 +4383,10 @@
     </row>
     <row r="132" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>297</v>
+      </c>
+      <c r="B132" t="s">
         <v>298</v>
-      </c>
-      <c r="B132" t="s">
-        <v>299</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
@@ -4403,10 +4400,10 @@
     </row>
     <row r="133" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>299</v>
+      </c>
+      <c r="B133" t="s">
         <v>300</v>
-      </c>
-      <c r="B133" t="s">
-        <v>301</v>
       </c>
       <c r="C133" t="s">
         <v>17</v>
@@ -4420,10 +4417,10 @@
     </row>
     <row r="134" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>301</v>
+      </c>
+      <c r="B134" t="s">
         <v>302</v>
-      </c>
-      <c r="B134" t="s">
-        <v>303</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="135" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>303</v>
+      </c>
+      <c r="B135" t="s">
         <v>304</v>
-      </c>
-      <c r="B135" t="s">
-        <v>305</v>
       </c>
       <c r="C135" t="s">
         <v>17</v>
@@ -4454,10 +4451,10 @@
     </row>
     <row r="136" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>305</v>
+      </c>
+      <c r="B136" t="s">
         <v>306</v>
-      </c>
-      <c r="B136" t="s">
-        <v>307</v>
       </c>
       <c r="C136" t="s">
         <v>17</v>
@@ -4471,10 +4468,10 @@
     </row>
     <row r="137" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>307</v>
+      </c>
+      <c r="B137" t="s">
         <v>308</v>
-      </c>
-      <c r="B137" t="s">
-        <v>309</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
@@ -4488,10 +4485,10 @@
     </row>
     <row r="138" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>309</v>
+      </c>
+      <c r="B138" t="s">
         <v>310</v>
-      </c>
-      <c r="B138" t="s">
-        <v>311</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -4505,10 +4502,10 @@
     </row>
     <row r="139" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139" t="s">
         <v>312</v>
-      </c>
-      <c r="B139" t="s">
-        <v>313</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -4522,13 +4519,13 @@
     </row>
     <row r="140" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140" t="s">
         <v>314</v>
       </c>
-      <c r="B140" t="s">
-        <v>315</v>
-      </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -4539,10 +4536,10 @@
     </row>
     <row r="141" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" t="s">
         <v>316</v>
-      </c>
-      <c r="B141" t="s">
-        <v>317</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -4556,10 +4553,10 @@
     </row>
     <row r="142" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" t="s">
         <v>318</v>
-      </c>
-      <c r="B142" t="s">
-        <v>319</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
@@ -4573,10 +4570,10 @@
     </row>
     <row r="143" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>319</v>
+      </c>
+      <c r="B143" t="s">
         <v>320</v>
-      </c>
-      <c r="B143" t="s">
-        <v>321</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
@@ -4590,10 +4587,10 @@
     </row>
     <row r="144" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>321</v>
+      </c>
+      <c r="B144" t="s">
         <v>322</v>
-      </c>
-      <c r="B144" t="s">
-        <v>323</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
@@ -4607,10 +4604,10 @@
     </row>
     <row r="145" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>323</v>
+      </c>
+      <c r="B145" t="s">
         <v>324</v>
-      </c>
-      <c r="B145" t="s">
-        <v>325</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -4624,10 +4621,10 @@
     </row>
     <row r="146" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" t="s">
         <v>326</v>
-      </c>
-      <c r="B146" t="s">
-        <v>327</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
@@ -4641,10 +4638,10 @@
     </row>
     <row r="147" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>327</v>
+      </c>
+      <c r="B147" t="s">
         <v>328</v>
-      </c>
-      <c r="B147" t="s">
-        <v>329</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
@@ -4658,10 +4655,10 @@
     </row>
     <row r="148" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>329</v>
+      </c>
+      <c r="B148" t="s">
         <v>330</v>
-      </c>
-      <c r="B148" t="s">
-        <v>331</v>
       </c>
       <c r="C148" t="s">
         <v>17</v>
@@ -4675,10 +4672,10 @@
     </row>
     <row r="149" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s">
         <v>332</v>
-      </c>
-      <c r="B149" t="s">
-        <v>333</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
@@ -4692,10 +4689,10 @@
     </row>
     <row r="150" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" t="s">
         <v>334</v>
-      </c>
-      <c r="B150" t="s">
-        <v>335</v>
       </c>
       <c r="C150" t="s">
         <v>17</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row r="151" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s">
         <v>336</v>
-      </c>
-      <c r="B151" t="s">
-        <v>337</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
@@ -4726,10 +4723,10 @@
     </row>
     <row r="152" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" t="s">
         <v>338</v>
-      </c>
-      <c r="B152" t="s">
-        <v>339</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
@@ -4743,10 +4740,10 @@
     </row>
     <row r="153" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" t="s">
         <v>340</v>
-      </c>
-      <c r="B153" t="s">
-        <v>341</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
@@ -4760,10 +4757,10 @@
     </row>
     <row r="154" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" t="s">
         <v>342</v>
-      </c>
-      <c r="B154" t="s">
-        <v>343</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
@@ -4777,13 +4774,13 @@
     </row>
     <row r="155" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" t="s">
         <v>344</v>
       </c>
-      <c r="B155" t="s">
-        <v>345</v>
-      </c>
       <c r="C155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
@@ -4794,10 +4791,10 @@
     </row>
     <row r="156" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>345</v>
+      </c>
+      <c r="B156" t="s">
         <v>346</v>
-      </c>
-      <c r="B156" t="s">
-        <v>347</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
@@ -4811,10 +4808,10 @@
     </row>
     <row r="157" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" t="s">
         <v>348</v>
-      </c>
-      <c r="B157" t="s">
-        <v>349</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
@@ -4828,10 +4825,10 @@
     </row>
     <row r="158" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>349</v>
+      </c>
+      <c r="B158" t="s">
         <v>350</v>
-      </c>
-      <c r="B158" t="s">
-        <v>351</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -4845,10 +4842,10 @@
     </row>
     <row r="159" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" t="s">
         <v>352</v>
-      </c>
-      <c r="B159" t="s">
-        <v>353</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -4862,10 +4859,10 @@
     </row>
     <row r="160" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160" t="s">
         <v>354</v>
-      </c>
-      <c r="B160" t="s">
-        <v>355</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -4879,10 +4876,10 @@
     </row>
     <row r="161" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>355</v>
+      </c>
+      <c r="B161" t="s">
         <v>356</v>
-      </c>
-      <c r="B161" t="s">
-        <v>357</v>
       </c>
       <c r="C161" t="s">
         <v>17</v>
@@ -4896,10 +4893,10 @@
     </row>
     <row r="162" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" t="s">
         <v>358</v>
-      </c>
-      <c r="B162" t="s">
-        <v>359</v>
       </c>
       <c r="C162" t="s">
         <v>17</v>
@@ -4913,10 +4910,10 @@
     </row>
     <row r="163" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" t="s">
         <v>360</v>
-      </c>
-      <c r="B163" t="s">
-        <v>361</v>
       </c>
       <c r="C163" t="s">
         <v>17</v>
@@ -4930,10 +4927,10 @@
     </row>
     <row r="164" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>361</v>
+      </c>
+      <c r="B164" t="s">
         <v>362</v>
-      </c>
-      <c r="B164" t="s">
-        <v>363</v>
       </c>
       <c r="C164" t="s">
         <v>17</v>
@@ -4947,10 +4944,10 @@
     </row>
     <row r="165" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>363</v>
+      </c>
+      <c r="B165" t="s">
         <v>364</v>
-      </c>
-      <c r="B165" t="s">
-        <v>365</v>
       </c>
       <c r="C165" t="s">
         <v>17</v>
@@ -4964,10 +4961,10 @@
     </row>
     <row r="166" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" t="s">
         <v>366</v>
-      </c>
-      <c r="B166" t="s">
-        <v>367</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
@@ -4981,10 +4978,10 @@
     </row>
     <row r="167" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" t="s">
         <v>368</v>
-      </c>
-      <c r="B167" t="s">
-        <v>369</v>
       </c>
       <c r="C167" t="s">
         <v>17</v>
@@ -4998,10 +4995,10 @@
     </row>
     <row r="168" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" t="s">
         <v>370</v>
-      </c>
-      <c r="B168" t="s">
-        <v>371</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
@@ -5015,13 +5012,13 @@
     </row>
     <row r="169" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>371</v>
+      </c>
+      <c r="B169" t="s">
         <v>372</v>
       </c>
-      <c r="B169" t="s">
-        <v>373</v>
-      </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
@@ -5032,10 +5029,10 @@
     </row>
     <row r="170" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>373</v>
+      </c>
+      <c r="B170" t="s">
         <v>374</v>
-      </c>
-      <c r="B170" t="s">
-        <v>375</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
@@ -5049,10 +5046,10 @@
     </row>
     <row r="171" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>375</v>
+      </c>
+      <c r="B171" t="s">
         <v>376</v>
-      </c>
-      <c r="B171" t="s">
-        <v>377</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
@@ -5066,10 +5063,10 @@
     </row>
     <row r="172" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>377</v>
+      </c>
+      <c r="B172" t="s">
         <v>378</v>
-      </c>
-      <c r="B172" t="s">
-        <v>379</v>
       </c>
       <c r="C172" t="s">
         <v>17</v>
@@ -5083,10 +5080,10 @@
     </row>
     <row r="173" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>379</v>
+      </c>
+      <c r="B173" t="s">
         <v>380</v>
-      </c>
-      <c r="B173" t="s">
-        <v>381</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
@@ -5100,10 +5097,10 @@
     </row>
     <row r="174" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>381</v>
+      </c>
+      <c r="B174" t="s">
         <v>382</v>
-      </c>
-      <c r="B174" t="s">
-        <v>383</v>
       </c>
       <c r="C174" t="s">
         <v>45</v>
@@ -5117,10 +5114,10 @@
     </row>
     <row r="175" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>383</v>
+      </c>
+      <c r="B175" t="s">
         <v>384</v>
-      </c>
-      <c r="B175" t="s">
-        <v>385</v>
       </c>
       <c r="C175" t="s">
         <v>17</v>
@@ -5134,10 +5131,10 @@
     </row>
     <row r="176" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>385</v>
+      </c>
+      <c r="B176" t="s">
         <v>386</v>
-      </c>
-      <c r="B176" t="s">
-        <v>387</v>
       </c>
       <c r="C176" t="s">
         <v>17</v>
@@ -5151,10 +5148,10 @@
     </row>
     <row r="177" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>387</v>
+      </c>
+      <c r="B177" t="s">
         <v>388</v>
-      </c>
-      <c r="B177" t="s">
-        <v>389</v>
       </c>
       <c r="C177" t="s">
         <v>17</v>
@@ -5168,10 +5165,10 @@
     </row>
     <row r="178" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>389</v>
+      </c>
+      <c r="B178" t="s">
         <v>390</v>
-      </c>
-      <c r="B178" t="s">
-        <v>391</v>
       </c>
       <c r="C178" t="s">
         <v>17</v>
@@ -5185,10 +5182,10 @@
     </row>
     <row r="179" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" t="s">
         <v>392</v>
-      </c>
-      <c r="B179" t="s">
-        <v>393</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
@@ -5202,10 +5199,10 @@
     </row>
     <row r="180" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180" t="s">
         <v>394</v>
-      </c>
-      <c r="B180" t="s">
-        <v>395</v>
       </c>
       <c r="C180" t="s">
         <v>17</v>
@@ -5219,10 +5216,10 @@
     </row>
     <row r="181" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>395</v>
+      </c>
+      <c r="B181" t="s">
         <v>396</v>
-      </c>
-      <c r="B181" t="s">
-        <v>397</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
@@ -5236,13 +5233,13 @@
     </row>
     <row r="182" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>397</v>
+      </c>
+      <c r="B182" t="s">
         <v>398</v>
       </c>
-      <c r="B182" t="s">
-        <v>399</v>
-      </c>
       <c r="C182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
@@ -5253,10 +5250,10 @@
     </row>
     <row r="183" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>399</v>
+      </c>
+      <c r="B183" t="s">
         <v>400</v>
-      </c>
-      <c r="B183" t="s">
-        <v>401</v>
       </c>
       <c r="C183" t="s">
         <v>17</v>
@@ -5270,10 +5267,10 @@
     </row>
     <row r="184" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>401</v>
+      </c>
+      <c r="B184" t="s">
         <v>402</v>
-      </c>
-      <c r="B184" t="s">
-        <v>403</v>
       </c>
       <c r="C184" t="s">
         <v>17</v>
@@ -5287,10 +5284,10 @@
     </row>
     <row r="185" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>403</v>
+      </c>
+      <c r="B185" t="s">
         <v>404</v>
-      </c>
-      <c r="B185" t="s">
-        <v>405</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
@@ -5304,10 +5301,10 @@
     </row>
     <row r="186" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>405</v>
+      </c>
+      <c r="B186" t="s">
         <v>406</v>
-      </c>
-      <c r="B186" t="s">
-        <v>407</v>
       </c>
       <c r="C186" t="s">
         <v>45</v>
@@ -5321,10 +5318,10 @@
     </row>
     <row r="187" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>407</v>
+      </c>
+      <c r="B187" t="s">
         <v>408</v>
-      </c>
-      <c r="B187" t="s">
-        <v>409</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
@@ -5338,10 +5335,10 @@
     </row>
     <row r="188" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>409</v>
+      </c>
+      <c r="B188" t="s">
         <v>410</v>
-      </c>
-      <c r="B188" t="s">
-        <v>411</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
@@ -5355,10 +5352,10 @@
     </row>
     <row r="189" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>411</v>
+      </c>
+      <c r="B189" t="s">
         <v>412</v>
-      </c>
-      <c r="B189" t="s">
-        <v>413</v>
       </c>
       <c r="C189" t="s">
         <v>17</v>
@@ -5372,10 +5369,10 @@
     </row>
     <row r="190" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>413</v>
+      </c>
+      <c r="B190" t="s">
         <v>414</v>
-      </c>
-      <c r="B190" t="s">
-        <v>415</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
@@ -5389,10 +5386,10 @@
     </row>
     <row r="191" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>415</v>
+      </c>
+      <c r="B191" t="s">
         <v>416</v>
-      </c>
-      <c r="B191" t="s">
-        <v>417</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
@@ -5406,10 +5403,10 @@
     </row>
     <row r="192" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>417</v>
+      </c>
+      <c r="B192" t="s">
         <v>418</v>
-      </c>
-      <c r="B192" t="s">
-        <v>419</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
@@ -5423,10 +5420,10 @@
     </row>
     <row r="193" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>419</v>
+      </c>
+      <c r="B193" t="s">
         <v>420</v>
-      </c>
-      <c r="B193" t="s">
-        <v>421</v>
       </c>
       <c r="C193" t="s">
         <v>17</v>
@@ -5440,10 +5437,10 @@
     </row>
     <row r="194" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>421</v>
+      </c>
+      <c r="B194" t="s">
         <v>422</v>
-      </c>
-      <c r="B194" t="s">
-        <v>423</v>
       </c>
       <c r="C194" t="s">
         <v>17</v>
@@ -5457,10 +5454,10 @@
     </row>
     <row r="195" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>423</v>
+      </c>
+      <c r="B195" t="s">
         <v>424</v>
-      </c>
-      <c r="B195" t="s">
-        <v>425</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
@@ -5474,10 +5471,10 @@
     </row>
     <row r="196" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>425</v>
+      </c>
+      <c r="B196" t="s">
         <v>426</v>
-      </c>
-      <c r="B196" t="s">
-        <v>427</v>
       </c>
       <c r="C196" t="s">
         <v>17</v>
@@ -5491,10 +5488,10 @@
     </row>
     <row r="197" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>427</v>
+      </c>
+      <c r="B197" t="s">
         <v>428</v>
-      </c>
-      <c r="B197" t="s">
-        <v>429</v>
       </c>
       <c r="C197" t="s">
         <v>17</v>
@@ -5508,10 +5505,10 @@
     </row>
     <row r="198" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>429</v>
+      </c>
+      <c r="B198" t="s">
         <v>430</v>
-      </c>
-      <c r="B198" t="s">
-        <v>431</v>
       </c>
       <c r="C198" t="s">
         <v>17</v>
@@ -5525,10 +5522,10 @@
     </row>
     <row r="199" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>431</v>
+      </c>
+      <c r="B199" t="s">
         <v>432</v>
-      </c>
-      <c r="B199" t="s">
-        <v>433</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
@@ -5542,10 +5539,10 @@
     </row>
     <row r="200" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>433</v>
+      </c>
+      <c r="B200" t="s">
         <v>434</v>
-      </c>
-      <c r="B200" t="s">
-        <v>435</v>
       </c>
       <c r="C200" t="s">
         <v>17</v>
@@ -5559,13 +5556,13 @@
     </row>
     <row r="201" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>435</v>
+      </c>
+      <c r="B201" t="s">
         <v>436</v>
       </c>
-      <c r="B201" t="s">
-        <v>437</v>
-      </c>
       <c r="C201" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
@@ -5576,10 +5573,10 @@
     </row>
     <row r="202" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>437</v>
+      </c>
+      <c r="B202" t="s">
         <v>438</v>
-      </c>
-      <c r="B202" t="s">
-        <v>439</v>
       </c>
       <c r="C202" t="s">
         <v>17</v>
@@ -5593,10 +5590,10 @@
     </row>
     <row r="203" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>439</v>
+      </c>
+      <c r="B203" t="s">
         <v>440</v>
-      </c>
-      <c r="B203" t="s">
-        <v>441</v>
       </c>
       <c r="C203" t="s">
         <v>17</v>
@@ -5610,10 +5607,10 @@
     </row>
     <row r="204" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>441</v>
+      </c>
+      <c r="B204" t="s">
         <v>442</v>
-      </c>
-      <c r="B204" t="s">
-        <v>443</v>
       </c>
       <c r="C204" t="s">
         <v>17</v>
@@ -5627,10 +5624,10 @@
     </row>
     <row r="205" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>443</v>
+      </c>
+      <c r="B205" t="s">
         <v>444</v>
-      </c>
-      <c r="B205" t="s">
-        <v>445</v>
       </c>
       <c r="C205" t="s">
         <v>17</v>
@@ -5644,10 +5641,10 @@
     </row>
     <row r="206" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>445</v>
+      </c>
+      <c r="B206" t="s">
         <v>446</v>
-      </c>
-      <c r="B206" t="s">
-        <v>447</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
@@ -5661,10 +5658,10 @@
     </row>
     <row r="207" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>447</v>
+      </c>
+      <c r="B207" t="s">
         <v>448</v>
-      </c>
-      <c r="B207" t="s">
-        <v>449</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
@@ -5678,10 +5675,10 @@
     </row>
     <row r="208" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>449</v>
+      </c>
+      <c r="B208" t="s">
         <v>450</v>
-      </c>
-      <c r="B208" t="s">
-        <v>451</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
@@ -5695,10 +5692,10 @@
     </row>
     <row r="209" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>451</v>
+      </c>
+      <c r="B209" t="s">
         <v>452</v>
-      </c>
-      <c r="B209" t="s">
-        <v>453</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -5712,10 +5709,10 @@
     </row>
     <row r="210" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>453</v>
+      </c>
+      <c r="B210" t="s">
         <v>454</v>
-      </c>
-      <c r="B210" t="s">
-        <v>455</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
@@ -5729,10 +5726,10 @@
     </row>
     <row r="211" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>455</v>
+      </c>
+      <c r="B211" t="s">
         <v>456</v>
-      </c>
-      <c r="B211" t="s">
-        <v>457</v>
       </c>
       <c r="C211" t="s">
         <v>17</v>
@@ -5746,10 +5743,10 @@
     </row>
     <row r="212" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>457</v>
+      </c>
+      <c r="B212" t="s">
         <v>458</v>
-      </c>
-      <c r="B212" t="s">
-        <v>459</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
@@ -5763,10 +5760,10 @@
     </row>
     <row r="213" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>459</v>
+      </c>
+      <c r="B213" t="s">
         <v>460</v>
-      </c>
-      <c r="B213" t="s">
-        <v>461</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -5780,10 +5777,10 @@
     </row>
     <row r="214" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>461</v>
+      </c>
+      <c r="B214" t="s">
         <v>462</v>
-      </c>
-      <c r="B214" t="s">
-        <v>463</v>
       </c>
       <c r="C214" t="s">
         <v>17</v>
@@ -5797,13 +5794,13 @@
     </row>
     <row r="215" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>463</v>
+      </c>
+      <c r="B215" t="s">
         <v>464</v>
       </c>
-      <c r="B215" t="s">
-        <v>465</v>
-      </c>
       <c r="C215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D215" t="s">
         <v>18</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="216" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216" t="s">
         <v>466</v>
-      </c>
-      <c r="B216" t="s">
-        <v>467</v>
       </c>
       <c r="C216" t="s">
         <v>17</v>
@@ -5831,10 +5828,10 @@
     </row>
     <row r="217" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>467</v>
+      </c>
+      <c r="B217" t="s">
         <v>468</v>
-      </c>
-      <c r="B217" t="s">
-        <v>469</v>
       </c>
       <c r="C217" t="s">
         <v>17</v>
@@ -5848,10 +5845,10 @@
     </row>
     <row r="218" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>469</v>
+      </c>
+      <c r="B218" t="s">
         <v>470</v>
-      </c>
-      <c r="B218" t="s">
-        <v>471</v>
       </c>
       <c r="C218" t="s">
         <v>17</v>
@@ -5865,10 +5862,10 @@
     </row>
     <row r="219" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>471</v>
+      </c>
+      <c r="B219" t="s">
         <v>472</v>
-      </c>
-      <c r="B219" t="s">
-        <v>473</v>
       </c>
       <c r="C219" t="s">
         <v>17</v>
@@ -5882,10 +5879,10 @@
     </row>
     <row r="220" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>473</v>
+      </c>
+      <c r="B220" t="s">
         <v>474</v>
-      </c>
-      <c r="B220" t="s">
-        <v>475</v>
       </c>
       <c r="C220" t="s">
         <v>56</v>
@@ -5899,10 +5896,10 @@
     </row>
     <row r="221" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>475</v>
+      </c>
+      <c r="B221" t="s">
         <v>476</v>
-      </c>
-      <c r="B221" t="s">
-        <v>477</v>
       </c>
       <c r="C221" t="s">
         <v>17</v>
@@ -5916,10 +5913,10 @@
     </row>
     <row r="222" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>477</v>
+      </c>
+      <c r="B222" t="s">
         <v>478</v>
-      </c>
-      <c r="B222" t="s">
-        <v>479</v>
       </c>
       <c r="C222" t="s">
         <v>17</v>
@@ -5933,10 +5930,10 @@
     </row>
     <row r="223" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>479</v>
+      </c>
+      <c r="B223" t="s">
         <v>480</v>
-      </c>
-      <c r="B223" t="s">
-        <v>481</v>
       </c>
       <c r="C223" t="s">
         <v>17</v>
@@ -5950,10 +5947,10 @@
     </row>
     <row r="224" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>481</v>
+      </c>
+      <c r="B224" t="s">
         <v>482</v>
-      </c>
-      <c r="B224" t="s">
-        <v>483</v>
       </c>
       <c r="C224" t="s">
         <v>17</v>
@@ -5967,10 +5964,10 @@
     </row>
     <row r="225" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>483</v>
+      </c>
+      <c r="B225" t="s">
         <v>484</v>
-      </c>
-      <c r="B225" t="s">
-        <v>485</v>
       </c>
       <c r="C225" t="s">
         <v>17</v>
@@ -5984,10 +5981,10 @@
     </row>
     <row r="226" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>485</v>
+      </c>
+      <c r="B226" t="s">
         <v>486</v>
-      </c>
-      <c r="B226" t="s">
-        <v>487</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
@@ -6001,10 +5998,10 @@
     </row>
     <row r="227" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>487</v>
+      </c>
+      <c r="B227" t="s">
         <v>488</v>
-      </c>
-      <c r="B227" t="s">
-        <v>489</v>
       </c>
       <c r="C227" t="s">
         <v>17</v>
@@ -6018,10 +6015,10 @@
     </row>
     <row r="228" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>489</v>
+      </c>
+      <c r="B228" t="s">
         <v>490</v>
-      </c>
-      <c r="B228" t="s">
-        <v>491</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -6035,10 +6032,10 @@
     </row>
     <row r="229" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>491</v>
+      </c>
+      <c r="B229" t="s">
         <v>492</v>
-      </c>
-      <c r="B229" t="s">
-        <v>493</v>
       </c>
       <c r="C229" t="s">
         <v>17</v>
@@ -6052,10 +6049,10 @@
     </row>
     <row r="230" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>493</v>
+      </c>
+      <c r="B230" t="s">
         <v>494</v>
-      </c>
-      <c r="B230" t="s">
-        <v>495</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
@@ -6069,10 +6066,10 @@
     </row>
     <row r="231" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>495</v>
+      </c>
+      <c r="B231" t="s">
         <v>496</v>
-      </c>
-      <c r="B231" t="s">
-        <v>497</v>
       </c>
       <c r="C231" t="s">
         <v>25</v>
@@ -6086,10 +6083,10 @@
     </row>
     <row r="232" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>497</v>
+      </c>
+      <c r="B232" t="s">
         <v>498</v>
-      </c>
-      <c r="B232" t="s">
-        <v>499</v>
       </c>
       <c r="C232" t="s">
         <v>17</v>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="233" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>499</v>
+      </c>
+      <c r="B233" t="s">
         <v>500</v>
-      </c>
-      <c r="B233" t="s">
-        <v>501</v>
       </c>
       <c r="C233" t="s">
         <v>17</v>
@@ -6120,10 +6117,10 @@
     </row>
     <row r="234" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>501</v>
+      </c>
+      <c r="B234" t="s">
         <v>502</v>
-      </c>
-      <c r="B234" t="s">
-        <v>503</v>
       </c>
       <c r="C234" t="s">
         <v>17</v>
@@ -6137,10 +6134,10 @@
     </row>
     <row r="235" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>503</v>
+      </c>
+      <c r="B235" t="s">
         <v>504</v>
-      </c>
-      <c r="B235" t="s">
-        <v>505</v>
       </c>
       <c r="C235" t="s">
         <v>17</v>
@@ -6154,10 +6151,10 @@
     </row>
     <row r="236" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>505</v>
+      </c>
+      <c r="B236" t="s">
         <v>506</v>
-      </c>
-      <c r="B236" t="s">
-        <v>507</v>
       </c>
       <c r="C236" t="s">
         <v>17</v>
@@ -6171,10 +6168,10 @@
     </row>
     <row r="237" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>507</v>
+      </c>
+      <c r="B237" t="s">
         <v>508</v>
-      </c>
-      <c r="B237" t="s">
-        <v>509</v>
       </c>
       <c r="C237" t="s">
         <v>25</v>
@@ -6188,10 +6185,10 @@
     </row>
     <row r="238" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>509</v>
+      </c>
+      <c r="B238" t="s">
         <v>510</v>
-      </c>
-      <c r="B238" t="s">
-        <v>511</v>
       </c>
       <c r="C238" t="s">
         <v>17</v>
@@ -6205,10 +6202,10 @@
     </row>
     <row r="239" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>511</v>
+      </c>
+      <c r="B239" t="s">
         <v>512</v>
-      </c>
-      <c r="B239" t="s">
-        <v>513</v>
       </c>
       <c r="C239" t="s">
         <v>17</v>
@@ -6222,10 +6219,10 @@
     </row>
     <row r="240" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>513</v>
+      </c>
+      <c r="B240" t="s">
         <v>514</v>
-      </c>
-      <c r="B240" t="s">
-        <v>515</v>
       </c>
       <c r="C240" t="s">
         <v>17</v>
@@ -6239,10 +6236,10 @@
     </row>
     <row r="241" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>515</v>
+      </c>
+      <c r="B241" t="s">
         <v>516</v>
-      </c>
-      <c r="B241" t="s">
-        <v>517</v>
       </c>
       <c r="C241" t="s">
         <v>17</v>
@@ -6256,10 +6253,10 @@
     </row>
     <row r="242" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>517</v>
+      </c>
+      <c r="B242" t="s">
         <v>518</v>
-      </c>
-      <c r="B242" t="s">
-        <v>519</v>
       </c>
       <c r="C242" t="s">
         <v>17</v>
@@ -6273,10 +6270,10 @@
     </row>
     <row r="243" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>519</v>
+      </c>
+      <c r="B243" t="s">
         <v>520</v>
-      </c>
-      <c r="B243" t="s">
-        <v>521</v>
       </c>
       <c r="C243" t="s">
         <v>17</v>
@@ -6290,10 +6287,10 @@
     </row>
     <row r="244" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>521</v>
+      </c>
+      <c r="B244" t="s">
         <v>522</v>
-      </c>
-      <c r="B244" t="s">
-        <v>523</v>
       </c>
       <c r="C244" t="s">
         <v>17</v>
@@ -6307,10 +6304,10 @@
     </row>
     <row r="245" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>523</v>
+      </c>
+      <c r="B245" t="s">
         <v>524</v>
-      </c>
-      <c r="B245" t="s">
-        <v>525</v>
       </c>
       <c r="C245" t="s">
         <v>17</v>
@@ -6324,10 +6321,10 @@
     </row>
     <row r="246" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>525</v>
+      </c>
+      <c r="B246" t="s">
         <v>526</v>
-      </c>
-      <c r="B246" t="s">
-        <v>527</v>
       </c>
       <c r="C246" t="s">
         <v>25</v>
@@ -6341,10 +6338,10 @@
     </row>
     <row r="247" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>527</v>
+      </c>
+      <c r="B247" t="s">
         <v>528</v>
-      </c>
-      <c r="B247" t="s">
-        <v>529</v>
       </c>
       <c r="C247" t="s">
         <v>17</v>
@@ -6358,44 +6355,44 @@
     </row>
     <row r="248" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>529</v>
+      </c>
+      <c r="B248" t="s">
         <v>530</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" t="s">
         <v>531</v>
       </c>
-      <c r="C248" t="s">
-        <v>17</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="E248" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="249" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>533</v>
+      </c>
+      <c r="B249" t="s">
         <v>534</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" t="s">
+        <v>531</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="C249" t="s">
-        <v>17</v>
-      </c>
-      <c r="D249" t="s">
-        <v>532</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="250" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>536</v>
+      </c>
+      <c r="B250" t="s">
         <v>537</v>
-      </c>
-      <c r="B250" t="s">
-        <v>538</v>
       </c>
       <c r="C250" t="s">
         <v>17</v>
@@ -6409,10 +6406,10 @@
     </row>
     <row r="251" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>538</v>
+      </c>
+      <c r="B251" t="s">
         <v>539</v>
-      </c>
-      <c r="B251" t="s">
-        <v>540</v>
       </c>
       <c r="C251" t="s">
         <v>17</v>
@@ -6426,10 +6423,10 @@
     </row>
     <row r="252" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>540</v>
+      </c>
+      <c r="B252" t="s">
         <v>541</v>
-      </c>
-      <c r="B252" t="s">
-        <v>542</v>
       </c>
       <c r="C252" t="s">
         <v>17</v>
@@ -6443,10 +6440,10 @@
     </row>
     <row r="253" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>542</v>
+      </c>
+      <c r="B253" t="s">
         <v>543</v>
-      </c>
-      <c r="B253" t="s">
-        <v>544</v>
       </c>
       <c r="C253" t="s">
         <v>17</v>
@@ -6460,10 +6457,10 @@
     </row>
     <row r="254" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>544</v>
+      </c>
+      <c r="B254" t="s">
         <v>545</v>
-      </c>
-      <c r="B254" t="s">
-        <v>546</v>
       </c>
       <c r="C254" t="s">
         <v>17</v>
@@ -6477,10 +6474,10 @@
     </row>
     <row r="255" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>546</v>
+      </c>
+      <c r="B255" t="s">
         <v>547</v>
-      </c>
-      <c r="B255" t="s">
-        <v>548</v>
       </c>
       <c r="C255" t="s">
         <v>17</v>
@@ -6494,10 +6491,10 @@
     </row>
     <row r="256" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>548</v>
+      </c>
+      <c r="B256" t="s">
         <v>549</v>
-      </c>
-      <c r="B256" t="s">
-        <v>550</v>
       </c>
       <c r="C256" t="s">
         <v>17</v>
@@ -6511,10 +6508,10 @@
     </row>
     <row r="257" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>550</v>
+      </c>
+      <c r="B257" t="s">
         <v>551</v>
-      </c>
-      <c r="B257" t="s">
-        <v>552</v>
       </c>
       <c r="C257" t="s">
         <v>17</v>
@@ -6528,10 +6525,10 @@
     </row>
     <row r="258" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>552</v>
+      </c>
+      <c r="B258" t="s">
         <v>553</v>
-      </c>
-      <c r="B258" t="s">
-        <v>554</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
@@ -6545,13 +6542,13 @@
     </row>
     <row r="259" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>554</v>
+      </c>
+      <c r="B259" t="s">
         <v>555</v>
       </c>
-      <c r="B259" t="s">
-        <v>556</v>
-      </c>
       <c r="C259" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D259" t="s">
         <v>18</v>
@@ -6562,10 +6559,10 @@
     </row>
     <row r="260" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>556</v>
+      </c>
+      <c r="B260" t="s">
         <v>557</v>
-      </c>
-      <c r="B260" t="s">
-        <v>558</v>
       </c>
       <c r="C260" t="s">
         <v>17</v>
@@ -6579,10 +6576,10 @@
     </row>
     <row r="261" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>558</v>
+      </c>
+      <c r="B261" t="s">
         <v>559</v>
-      </c>
-      <c r="B261" t="s">
-        <v>560</v>
       </c>
       <c r="C261" t="s">
         <v>17</v>
@@ -6596,10 +6593,10 @@
     </row>
     <row r="262" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>560</v>
+      </c>
+      <c r="B262" t="s">
         <v>561</v>
-      </c>
-      <c r="B262" t="s">
-        <v>562</v>
       </c>
       <c r="C262" t="s">
         <v>17</v>
@@ -6613,10 +6610,10 @@
     </row>
     <row r="263" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>562</v>
+      </c>
+      <c r="B263" t="s">
         <v>563</v>
-      </c>
-      <c r="B263" t="s">
-        <v>564</v>
       </c>
       <c r="C263" t="s">
         <v>17</v>
@@ -6630,10 +6627,10 @@
     </row>
     <row r="264" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>564</v>
+      </c>
+      <c r="B264" t="s">
         <v>565</v>
-      </c>
-      <c r="B264" t="s">
-        <v>566</v>
       </c>
       <c r="C264" t="s">
         <v>17</v>
@@ -6647,10 +6644,10 @@
     </row>
     <row r="265" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>566</v>
+      </c>
+      <c r="B265" t="s">
         <v>567</v>
-      </c>
-      <c r="B265" t="s">
-        <v>568</v>
       </c>
       <c r="C265" t="s">
         <v>45</v>
@@ -6664,10 +6661,10 @@
     </row>
     <row r="266" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>568</v>
+      </c>
+      <c r="B266" t="s">
         <v>569</v>
-      </c>
-      <c r="B266" t="s">
-        <v>570</v>
       </c>
       <c r="C266" t="s">
         <v>17</v>
@@ -6681,10 +6678,10 @@
     </row>
     <row r="267" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>570</v>
+      </c>
+      <c r="B267" t="s">
         <v>571</v>
-      </c>
-      <c r="B267" t="s">
-        <v>572</v>
       </c>
       <c r="C267" t="s">
         <v>17</v>
@@ -6698,10 +6695,10 @@
     </row>
     <row r="268" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>572</v>
+      </c>
+      <c r="B268" t="s">
         <v>573</v>
-      </c>
-      <c r="B268" t="s">
-        <v>574</v>
       </c>
       <c r="C268" t="s">
         <v>17</v>
@@ -6715,10 +6712,10 @@
     </row>
     <row r="269" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>574</v>
+      </c>
+      <c r="B269" t="s">
         <v>575</v>
-      </c>
-      <c r="B269" t="s">
-        <v>576</v>
       </c>
       <c r="C269" t="s">
         <v>17</v>
@@ -6732,10 +6729,10 @@
     </row>
     <row r="270" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>576</v>
+      </c>
+      <c r="B270" t="s">
         <v>577</v>
-      </c>
-      <c r="B270" t="s">
-        <v>578</v>
       </c>
       <c r="C270" t="s">
         <v>56</v>
@@ -6749,10 +6746,10 @@
     </row>
     <row r="271" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>578</v>
+      </c>
+      <c r="B271" t="s">
         <v>579</v>
-      </c>
-      <c r="B271" t="s">
-        <v>580</v>
       </c>
       <c r="C271" t="s">
         <v>17</v>
@@ -6766,10 +6763,10 @@
     </row>
     <row r="272" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>580</v>
+      </c>
+      <c r="B272" t="s">
         <v>581</v>
-      </c>
-      <c r="B272" t="s">
-        <v>582</v>
       </c>
       <c r="C272" t="s">
         <v>17</v>
@@ -6783,10 +6780,10 @@
     </row>
     <row r="273" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>582</v>
+      </c>
+      <c r="B273" t="s">
         <v>583</v>
-      </c>
-      <c r="B273" t="s">
-        <v>584</v>
       </c>
       <c r="C273" t="s">
         <v>17</v>
@@ -6800,10 +6797,10 @@
     </row>
     <row r="274" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>584</v>
+      </c>
+      <c r="B274" t="s">
         <v>585</v>
-      </c>
-      <c r="B274" t="s">
-        <v>586</v>
       </c>
       <c r="C274" t="s">
         <v>17</v>
@@ -6817,27 +6814,27 @@
     </row>
     <row r="275" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>586</v>
+      </c>
+      <c r="B275" t="s">
         <v>587</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" t="s">
         <v>588</v>
       </c>
-      <c r="C275" t="s">
-        <v>17</v>
-      </c>
-      <c r="D275" t="s">
+      <c r="E275" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="276" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>590</v>
+      </c>
+      <c r="B276" t="s">
         <v>591</v>
-      </c>
-      <c r="B276" t="s">
-        <v>592</v>
       </c>
       <c r="C276" t="s">
         <v>17</v>
@@ -6851,10 +6848,10 @@
     </row>
     <row r="277" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>592</v>
+      </c>
+      <c r="B277" t="s">
         <v>593</v>
-      </c>
-      <c r="B277" t="s">
-        <v>594</v>
       </c>
       <c r="C277" t="s">
         <v>25</v>
@@ -6868,10 +6865,10 @@
     </row>
     <row r="278" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>594</v>
+      </c>
+      <c r="B278" t="s">
         <v>595</v>
-      </c>
-      <c r="B278" t="s">
-        <v>596</v>
       </c>
       <c r="C278" t="s">
         <v>17</v>
@@ -6885,10 +6882,10 @@
     </row>
     <row r="279" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>596</v>
+      </c>
+      <c r="B279" t="s">
         <v>597</v>
-      </c>
-      <c r="B279" t="s">
-        <v>598</v>
       </c>
       <c r="C279" t="s">
         <v>17</v>
@@ -6902,10 +6899,10 @@
     </row>
     <row r="280" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>598</v>
+      </c>
+      <c r="B280" t="s">
         <v>599</v>
-      </c>
-      <c r="B280" t="s">
-        <v>600</v>
       </c>
       <c r="C280" t="s">
         <v>17</v>
@@ -6919,10 +6916,10 @@
     </row>
     <row r="281" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>600</v>
+      </c>
+      <c r="B281" t="s">
         <v>601</v>
-      </c>
-      <c r="B281" t="s">
-        <v>602</v>
       </c>
       <c r="C281" t="s">
         <v>17</v>
@@ -6936,10 +6933,10 @@
     </row>
     <row r="282" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>602</v>
+      </c>
+      <c r="B282" t="s">
         <v>603</v>
-      </c>
-      <c r="B282" t="s">
-        <v>604</v>
       </c>
       <c r="C282" t="s">
         <v>17</v>
@@ -6953,10 +6950,10 @@
     </row>
     <row r="283" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>604</v>
+      </c>
+      <c r="B283" t="s">
         <v>605</v>
-      </c>
-      <c r="B283" t="s">
-        <v>606</v>
       </c>
       <c r="C283" t="s">
         <v>17</v>
@@ -6970,10 +6967,10 @@
     </row>
     <row r="284" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>606</v>
+      </c>
+      <c r="B284" t="s">
         <v>607</v>
-      </c>
-      <c r="B284" t="s">
-        <v>608</v>
       </c>
       <c r="C284" t="s">
         <v>17</v>
@@ -6987,10 +6984,10 @@
     </row>
     <row r="285" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>608</v>
+      </c>
+      <c r="B285" t="s">
         <v>609</v>
-      </c>
-      <c r="B285" t="s">
-        <v>610</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -7004,10 +7001,10 @@
     </row>
     <row r="286" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>610</v>
+      </c>
+      <c r="B286" t="s">
         <v>611</v>
-      </c>
-      <c r="B286" t="s">
-        <v>612</v>
       </c>
       <c r="C286" t="s">
         <v>17</v>
@@ -7021,10 +7018,10 @@
     </row>
     <row r="287" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>612</v>
+      </c>
+      <c r="B287" t="s">
         <v>613</v>
-      </c>
-      <c r="B287" t="s">
-        <v>614</v>
       </c>
       <c r="C287" t="s">
         <v>17</v>
@@ -7038,10 +7035,10 @@
     </row>
     <row r="288" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>614</v>
+      </c>
+      <c r="B288" t="s">
         <v>615</v>
-      </c>
-      <c r="B288" t="s">
-        <v>616</v>
       </c>
       <c r="C288" t="s">
         <v>17</v>
@@ -7055,10 +7052,10 @@
     </row>
     <row r="289" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>616</v>
+      </c>
+      <c r="B289" t="s">
         <v>617</v>
-      </c>
-      <c r="B289" t="s">
-        <v>618</v>
       </c>
       <c r="C289" t="s">
         <v>25</v>
@@ -7072,10 +7069,10 @@
     </row>
     <row r="290" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>618</v>
+      </c>
+      <c r="B290" t="s">
         <v>619</v>
-      </c>
-      <c r="B290" t="s">
-        <v>620</v>
       </c>
       <c r="C290" t="s">
         <v>17</v>
@@ -7089,10 +7086,10 @@
     </row>
     <row r="291" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>620</v>
+      </c>
+      <c r="B291" t="s">
         <v>621</v>
-      </c>
-      <c r="B291" t="s">
-        <v>622</v>
       </c>
       <c r="C291" t="s">
         <v>17</v>
@@ -7106,10 +7103,10 @@
     </row>
     <row r="292" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>622</v>
+      </c>
+      <c r="B292" t="s">
         <v>623</v>
-      </c>
-      <c r="B292" t="s">
-        <v>624</v>
       </c>
       <c r="C292" t="s">
         <v>17</v>
@@ -7123,10 +7120,10 @@
     </row>
     <row r="293" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>624</v>
+      </c>
+      <c r="B293" t="s">
         <v>625</v>
-      </c>
-      <c r="B293" t="s">
-        <v>626</v>
       </c>
       <c r="C293" t="s">
         <v>17</v>
@@ -7140,10 +7137,10 @@
     </row>
     <row r="294" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>626</v>
+      </c>
+      <c r="B294" t="s">
         <v>627</v>
-      </c>
-      <c r="B294" t="s">
-        <v>628</v>
       </c>
       <c r="C294" t="s">
         <v>17</v>
@@ -7157,10 +7154,10 @@
     </row>
     <row r="295" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>628</v>
+      </c>
+      <c r="B295" t="s">
         <v>629</v>
-      </c>
-      <c r="B295" t="s">
-        <v>630</v>
       </c>
       <c r="C295" t="s">
         <v>25</v>
@@ -7174,10 +7171,10 @@
     </row>
     <row r="296" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>630</v>
+      </c>
+      <c r="B296" t="s">
         <v>631</v>
-      </c>
-      <c r="B296" t="s">
-        <v>632</v>
       </c>
       <c r="C296" t="s">
         <v>17</v>
@@ -7191,10 +7188,10 @@
     </row>
     <row r="297" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>632</v>
+      </c>
+      <c r="B297" t="s">
         <v>633</v>
-      </c>
-      <c r="B297" t="s">
-        <v>634</v>
       </c>
       <c r="C297" t="s">
         <v>17</v>
@@ -7208,10 +7205,10 @@
     </row>
     <row r="298" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>634</v>
+      </c>
+      <c r="B298" t="s">
         <v>635</v>
-      </c>
-      <c r="B298" t="s">
-        <v>636</v>
       </c>
       <c r="C298" t="s">
         <v>17</v>
@@ -7225,10 +7222,10 @@
     </row>
     <row r="299" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>636</v>
+      </c>
+      <c r="B299" t="s">
         <v>637</v>
-      </c>
-      <c r="B299" t="s">
-        <v>638</v>
       </c>
       <c r="C299" t="s">
         <v>17</v>
@@ -7242,10 +7239,10 @@
     </row>
     <row r="300" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>638</v>
+      </c>
+      <c r="B300" t="s">
         <v>639</v>
-      </c>
-      <c r="B300" t="s">
-        <v>640</v>
       </c>
       <c r="C300" t="s">
         <v>17</v>
@@ -7259,10 +7256,10 @@
     </row>
     <row r="301" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>640</v>
+      </c>
+      <c r="B301" t="s">
         <v>641</v>
-      </c>
-      <c r="B301" t="s">
-        <v>642</v>
       </c>
       <c r="C301" t="s">
         <v>17</v>
@@ -7276,13 +7273,13 @@
     </row>
     <row r="302" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>642</v>
+      </c>
+      <c r="B302" t="s">
         <v>643</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>644</v>
-      </c>
-      <c r="C302" t="s">
-        <v>645</v>
       </c>
       <c r="D302" t="s">
         <v>18</v>
@@ -7293,13 +7290,13 @@
     </row>
     <row r="303" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>645</v>
+      </c>
+      <c r="B303" t="s">
         <v>646</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>647</v>
-      </c>
-      <c r="C303" t="s">
-        <v>648</v>
       </c>
       <c r="D303" t="s">
         <v>18</v>
@@ -7310,13 +7307,13 @@
     </row>
     <row r="304" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>648</v>
+      </c>
+      <c r="B304" t="s">
         <v>649</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>650</v>
-      </c>
-      <c r="C304" t="s">
-        <v>651</v>
       </c>
       <c r="D304" t="s">
         <v>18</v>
@@ -7327,13 +7324,13 @@
     </row>
     <row r="305" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>651</v>
+      </c>
+      <c r="B305" t="s">
         <v>652</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>653</v>
-      </c>
-      <c r="C305" t="s">
-        <v>654</v>
       </c>
       <c r="D305" t="s">
         <v>18</v>
@@ -7344,10 +7341,10 @@
     </row>
     <row r="306" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>654</v>
+      </c>
+      <c r="B306" t="s">
         <v>655</v>
-      </c>
-      <c r="B306" t="s">
-        <v>656</v>
       </c>
       <c r="C306" t="s">
         <v>89</v>
@@ -7361,13 +7358,13 @@
     </row>
     <row r="307" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>656</v>
+      </c>
+      <c r="B307" t="s">
         <v>657</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>658</v>
-      </c>
-      <c r="C307" t="s">
-        <v>659</v>
       </c>
       <c r="D307" t="s">
         <v>18</v>
@@ -7378,13 +7375,13 @@
     </row>
     <row r="308" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>659</v>
+      </c>
+      <c r="B308" t="s">
         <v>660</v>
       </c>
-      <c r="B308" t="s">
-        <v>661</v>
-      </c>
       <c r="C308" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D308" t="s">
         <v>18</v>
@@ -7395,13 +7392,13 @@
     </row>
     <row r="309" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>661</v>
+      </c>
+      <c r="B309" t="s">
         <v>662</v>
       </c>
-      <c r="B309" t="s">
-        <v>663</v>
-      </c>
       <c r="C309" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D309" t="s">
         <v>18</v>
@@ -7412,13 +7409,13 @@
     </row>
     <row r="310" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>663</v>
+      </c>
+      <c r="B310" t="s">
         <v>664</v>
       </c>
-      <c r="B310" t="s">
-        <v>665</v>
-      </c>
       <c r="C310" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D310" t="s">
         <v>18</v>
@@ -7429,13 +7426,13 @@
     </row>
     <row r="311" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>665</v>
+      </c>
+      <c r="B311" t="s">
         <v>666</v>
       </c>
-      <c r="B311" t="s">
-        <v>667</v>
-      </c>
       <c r="C311" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
@@ -7446,10 +7443,10 @@
     </row>
     <row r="312" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>667</v>
+      </c>
+      <c r="B312" t="s">
         <v>668</v>
-      </c>
-      <c r="B312" t="s">
-        <v>669</v>
       </c>
       <c r="C312" t="s">
         <v>89</v>
@@ -7463,13 +7460,13 @@
     </row>
     <row r="313" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>669</v>
+      </c>
+      <c r="B313" t="s">
         <v>670</v>
       </c>
-      <c r="B313" t="s">
-        <v>671</v>
-      </c>
       <c r="C313" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D313" t="s">
         <v>18</v>
@@ -7480,13 +7477,13 @@
     </row>
     <row r="314" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>671</v>
+      </c>
+      <c r="B314" t="s">
         <v>672</v>
       </c>
-      <c r="B314" t="s">
-        <v>673</v>
-      </c>
       <c r="C314" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D314" t="s">
         <v>18</v>
@@ -7497,10 +7494,10 @@
     </row>
     <row r="315" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>673</v>
+      </c>
+      <c r="B315" t="s">
         <v>674</v>
-      </c>
-      <c r="B315" t="s">
-        <v>675</v>
       </c>
       <c r="C315" t="s">
         <v>56</v>
@@ -7514,13 +7511,13 @@
     </row>
     <row r="316" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>675</v>
+      </c>
+      <c r="B316" t="s">
         <v>676</v>
       </c>
-      <c r="B316" t="s">
-        <v>677</v>
-      </c>
       <c r="C316" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D316" t="s">
         <v>18</v>
@@ -7531,13 +7528,13 @@
     </row>
     <row r="317" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>677</v>
+      </c>
+      <c r="B317" t="s">
         <v>678</v>
       </c>
-      <c r="B317" t="s">
-        <v>679</v>
-      </c>
       <c r="C317" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D317" t="s">
         <v>18</v>
@@ -7548,13 +7545,13 @@
     </row>
     <row r="318" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>679</v>
+      </c>
+      <c r="B318" t="s">
         <v>680</v>
       </c>
-      <c r="B318" t="s">
-        <v>681</v>
-      </c>
       <c r="C318" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D318" t="s">
         <v>18</v>
@@ -7565,13 +7562,13 @@
     </row>
     <row r="319" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>681</v>
+      </c>
+      <c r="B319" t="s">
         <v>682</v>
       </c>
-      <c r="B319" t="s">
-        <v>683</v>
-      </c>
       <c r="C319" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D319" t="s">
         <v>18</v>
@@ -7582,19 +7579,19 @@
     </row>
     <row r="320" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>683</v>
+      </c>
+      <c r="B320" t="s">
+        <v>683</v>
+      </c>
+      <c r="C320" t="s">
+        <v>104</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="B320" t="s">
-        <v>684</v>
-      </c>
-      <c r="C320" t="s">
-        <v>105</v>
-      </c>
-      <c r="D320" t="s">
-        <v>97</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>
